--- a/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040305015505030401010</v>
+        <v>040305015505030401010101010101025107100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
@@ -605,9 +605,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>5</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
@@ -613,6 +613,9 @@
         <v xml:space="preserve">448_吊米 绿_hanging amaranthus
 green_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -674,7 +677,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040305015505030401010101010101025107100</v>
+        <v>040305015505030401010101010101025107105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,9 +617,101 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" xml:space="preserve">
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>6</v>
+      </c>
+      <c r="C29" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L32"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -677,7 +769,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040305015505030401010101010101025107105</v>
+        <v>04030501550503040101010101010102510710551510108304010151010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,272 +446,93 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
       <c r="F2" t="str">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>328_卢荀草_undefined_undefined_1bunch</v>
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
       </c>
       <c r="F3" t="str">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
       </c>
       <c r="F4" t="str">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>326_红继木_undefined_undefined_1bunch</v>
+        <v>431_小米果_undefined_undefined_1bunch</v>
       </c>
       <c r="F5" t="str">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
       </c>
       <c r="F6" t="str">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="C7" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F7" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F8" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F9" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
         <v>2</v>
       </c>
-      <c r="C7" t="str">
-        <v>431_小米果_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F7" t="str">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="str">
-        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F8" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="str">
-        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F9" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
       <c r="C10" t="str">
-        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F10" t="str">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>83_布拉格_undefined_Gerbera L._10stems</v>
-      </c>
-      <c r="F11" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
-        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F12" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="str">
-        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F13" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>3</v>
-      </c>
-      <c r="C14" t="str">
-        <v>669_大丽花 红_undefined_undefined_5stems</v>
-      </c>
-      <c r="F14" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v>653_大丽花 黑_undefined_undefined_5stems</v>
-      </c>
-      <c r="F15" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F16" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>4</v>
-      </c>
-      <c r="C17" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F17" t="str">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="str">
-        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F18" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F19" t="str">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="str">
-        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F20" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" xml:space="preserve">
-      <c r="A21" t="str">
-        <v>5</v>
-      </c>
-      <c r="C21" t="str" xml:space="preserve">
-        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
-green_undefined_1bunch</v>
-      </c>
-      <c r="F21" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" xml:space="preserve">
-      <c r="C22" t="str" xml:space="preserve">
-        <v xml:space="preserve">542_吊米 红_hanging amaranthus
-red_undefined_1bunch</v>
-      </c>
-      <c r="F22" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F23" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="str">
-        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F24" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="str">
-        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F25" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F26" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="str">
-        <v>439_九星叶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F27" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" t="str">
-        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
-      </c>
-      <c r="F28" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>6</v>
-      </c>
-      <c r="C29" t="str">
-        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
-      </c>
-      <c r="F29" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="str">
-        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
-      </c>
-      <c r="F30" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="str">
-        <v>551_铁线莲_Glematis_undefined_1bunch</v>
-      </c>
-      <c r="F31" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F32" t="str">
-        <v>10</v>
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -769,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04030501550503040101010101010102510710551510108304010151010</v>
+        <v>055551031010210</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
@@ -529,6 +529,9 @@
       <c r="C11" t="str">
         <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -590,7 +593,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>055551031010210</v>
+        <v>055551031010215</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-19.xlsx
@@ -595,6 +595,9 @@
       <c r="G2" t="str">
         <v>055551031010215</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
